--- a/results/probability_data.xlsx
+++ b/results/probability_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris Wise (local)\Documents\GitHub\ZEIT3191-ML-Quantum-Computing\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B45282F-8FC3-46D5-8387-5E21344B2EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E6989C-ED0F-45A1-A3A9-C40EA12BF5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,30 +307,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:C63"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,40 +660,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
@@ -748,7 +748,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6">
@@ -805,7 +805,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="7">
         <f t="shared" si="1"/>
         <v>0.52359877559829882</v>
@@ -860,7 +860,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="7">
         <f t="shared" si="1"/>
         <v>1.0471975511965976</v>
@@ -915,7 +915,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="7">
         <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
@@ -970,7 +970,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="7">
         <f t="shared" si="1"/>
         <v>2.0943951023931953</v>
@@ -1025,7 +1025,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="7">
         <f t="shared" si="1"/>
         <v>2.6179938779914944</v>
@@ -1080,7 +1080,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="7">
         <f t="shared" si="1"/>
         <v>3.1415926535897931</v>
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="7">
         <f t="shared" si="1"/>
         <v>3.6651914291880918</v>
@@ -1190,7 +1190,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="7">
         <f t="shared" si="1"/>
         <v>4.1887902047863905</v>
@@ -1245,7 +1245,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="7">
         <f t="shared" si="1"/>
         <v>4.7123889803846897</v>
@@ -1300,7 +1300,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="7">
         <f t="shared" si="1"/>
         <v>5.2359877559829888</v>
@@ -1355,7 +1355,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="8">
         <f t="shared" si="1"/>
         <v>5.7595865315812871</v>
@@ -1410,40 +1410,40 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="36"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="27"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="33"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="6">
@@ -1543,7 +1543,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="7">
         <f t="shared" si="4"/>
         <v>0.52359877559829882</v>
@@ -1586,7 +1586,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="7">
         <f t="shared" si="4"/>
         <v>1.0471975511965976</v>
@@ -1629,7 +1629,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="7">
         <f t="shared" si="4"/>
         <v>1.5707963267948966</v>
@@ -1672,7 +1672,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="7">
         <f t="shared" si="4"/>
         <v>2.0943951023931953</v>
@@ -1715,7 +1715,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="7">
         <f t="shared" si="4"/>
         <v>2.6179938779914944</v>
@@ -1758,7 +1758,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="7">
         <f t="shared" si="4"/>
         <v>3.1415926535897931</v>
@@ -1801,7 +1801,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="7">
         <f t="shared" si="4"/>
         <v>3.6651914291880918</v>
@@ -1844,7 +1844,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="7">
         <f t="shared" si="4"/>
         <v>4.1887902047863905</v>
@@ -1887,7 +1887,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="7">
         <f t="shared" si="4"/>
         <v>4.7123889803846897</v>
@@ -1930,7 +1930,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="7">
         <f t="shared" si="4"/>
         <v>5.2359877559829888</v>
@@ -1973,7 +1973,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="8">
         <f t="shared" si="4"/>
         <v>5.7595865315812871</v>
@@ -2016,40 +2016,40 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="33"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="36"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="27"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="33"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
@@ -2104,7 +2104,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="4">
@@ -2161,7 +2161,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="18">
         <f t="shared" si="6"/>
         <v>0.52359877559829882</v>
@@ -2216,7 +2216,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="18">
         <f t="shared" si="6"/>
         <v>1.0471975511965976</v>
@@ -2271,7 +2271,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="18">
         <f t="shared" si="6"/>
         <v>1.5707963267948966</v>
@@ -2326,7 +2326,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="18">
         <f t="shared" si="6"/>
         <v>2.0943951023931953</v>
@@ -2381,7 +2381,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="18">
         <f t="shared" si="6"/>
         <v>2.6179938779914944</v>
@@ -2436,7 +2436,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="18">
         <f t="shared" si="6"/>
         <v>3.1415926535897931</v>
@@ -2491,7 +2491,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="18">
         <f t="shared" si="6"/>
         <v>3.6651914291880918</v>
@@ -2546,7 +2546,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="18">
         <f t="shared" si="6"/>
         <v>4.1887902047863905</v>
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="18">
         <f t="shared" si="6"/>
         <v>4.7123889803846897</v>
@@ -2656,7 +2656,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="18">
         <f t="shared" si="6"/>
         <v>5.2359877559829888</v>
@@ -2711,7 +2711,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="19">
         <f t="shared" si="6"/>
         <v>5.7595865315812871</v>
@@ -2766,38 +2766,38 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="36"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="30"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="27"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="33"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C51" s="3">
@@ -2838,7 +2838,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="6">
@@ -2882,7 +2882,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="7">
         <v>0.52359877559829882</v>
       </c>
@@ -2924,7 +2924,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="7">
         <v>1.0471975511965976</v>
       </c>
@@ -2966,7 +2966,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="7">
         <v>1.5707963267948966</v>
       </c>
@@ -3008,7 +3008,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="7">
         <v>2.0943951023931953</v>
       </c>
@@ -3050,7 +3050,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="7">
         <v>2.6179938779914944</v>
       </c>
@@ -3092,7 +3092,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="7">
         <v>3.1415926535897931</v>
       </c>
@@ -3134,7 +3134,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="7">
         <v>3.6651914291880918</v>
       </c>
@@ -3176,7 +3176,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="7">
         <v>4.1887902047863905</v>
       </c>
@@ -3218,7 +3218,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="7">
         <v>4.7123889803846897</v>
       </c>
@@ -3260,7 +3260,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="7">
         <v>5.2359877559829888</v>
       </c>
@@ -3302,7 +3302,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
+      <c r="A63" s="27"/>
       <c r="B63" s="8">
         <v>5.7595865315812871</v>
       </c>
@@ -3345,6 +3345,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C50:N50"/>
+    <mergeCell ref="A52:A63"/>
+    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="A36:A47"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="A49:N49"/>
     <mergeCell ref="C2:N2"/>
@@ -3352,11 +3357,6 @@
     <mergeCell ref="A17:N17"/>
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="A20:A31"/>
-    <mergeCell ref="C50:N50"/>
-    <mergeCell ref="A52:A63"/>
-    <mergeCell ref="A33:N33"/>
-    <mergeCell ref="C34:N34"/>
-    <mergeCell ref="A36:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/results/probability_data.xlsx
+++ b/results/probability_data.xlsx
@@ -170,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -178,33 +178,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -593,8 +570,8 @@
   </sheetPr>
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -610,30 +587,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Ideal probabilities</t>
         </is>
       </c>
-      <c r="B1" s="6" t="n"/>
-      <c r="D1" s="16" t="inlineStr">
+      <c r="B1" s="8" t="n"/>
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>Measured probabilities</t>
         </is>
       </c>
-      <c r="E1" s="6" t="n"/>
-      <c r="G1" s="17" t="inlineStr">
+      <c r="E1" s="8" t="n"/>
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>Difference in probabilities</t>
         </is>
       </c>
-      <c r="H1" s="6" t="n"/>
-      <c r="J1" s="18" t="inlineStr">
+      <c r="H1" s="8" t="n"/>
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>Difference in probabilities (raw values)</t>
         </is>
       </c>
-      <c r="K1" s="6" t="n"/>
+      <c r="K1" s="8" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -641,7 +618,7 @@
           <t>Theta</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>p(0)</t>
         </is>
@@ -651,7 +628,7 @@
           <t>Theta</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="8" t="inlineStr">
         <is>
           <t>p(0)</t>
         </is>
@@ -661,7 +638,7 @@
           <t>Theta</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>p(0)</t>
         </is>
@@ -671,7 +648,7 @@
           <t>Theta</t>
         </is>
       </c>
-      <c r="K2" s="6" t="inlineStr">
+      <c r="K2" s="8" t="inlineStr">
         <is>
           <t>p(0)</t>
         </is>
@@ -683,7 +660,7 @@
         <v/>
       </c>
       <c r="B3" s="1">
-        <f>ABS(COS(A3))^2</f>
+        <f>ABS(COS(A3/2))^2</f>
         <v/>
       </c>
       <c r="D3" s="3">
@@ -691,7 +668,7 @@
         <v/>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.9450499999999999</v>
+        <v>0.98785</v>
       </c>
       <c r="G3" s="3">
         <f>(ROW(G3)-ROW($A$3))*PI()/50</f>
@@ -716,7 +693,7 @@
         <v/>
       </c>
       <c r="B4" s="1">
-        <f>ABS(COS(A4))^2</f>
+        <f>ABS(COS(A4/2))^2</f>
         <v/>
       </c>
       <c r="D4" s="3">
@@ -724,7 +701,7 @@
         <v/>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.9380500000000001</v>
+        <v>0.9873499999999999</v>
       </c>
       <c r="G4" s="3">
         <f>(ROW(G4)-ROW($A$3))*PI()/50</f>
@@ -749,7 +726,7 @@
         <v/>
       </c>
       <c r="B5" s="1">
-        <f>ABS(COS(A5))^2</f>
+        <f>ABS(COS(A5/2))^2</f>
         <v/>
       </c>
       <c r="D5" s="3">
@@ -757,7 +734,7 @@
         <v/>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.93405</v>
+        <v>0.98655</v>
       </c>
       <c r="G5" s="3">
         <f>(ROW(G5)-ROW($A$3))*PI()/50</f>
@@ -782,7 +759,7 @@
         <v/>
       </c>
       <c r="B6" s="1">
-        <f>ABS(COS(A6))^2</f>
+        <f>ABS(COS(A6/2))^2</f>
         <v/>
       </c>
       <c r="D6" s="3">
@@ -790,7 +767,7 @@
         <v/>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.93405</v>
+        <v>0.98</v>
       </c>
       <c r="G6" s="3">
         <f>(ROW(G6)-ROW($A$3))*PI()/50</f>
@@ -815,7 +792,7 @@
         <v/>
       </c>
       <c r="B7" s="1">
-        <f>ABS(COS(A7))^2</f>
+        <f>ABS(COS(A7/2))^2</f>
         <v/>
       </c>
       <c r="D7" s="3">
@@ -823,7 +800,7 @@
         <v/>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.92375</v>
+        <v>0.9742</v>
       </c>
       <c r="G7" s="3">
         <f>(ROW(G7)-ROW($A$3))*PI()/50</f>
@@ -848,7 +825,7 @@
         <v/>
       </c>
       <c r="B8" s="1">
-        <f>ABS(COS(A8))^2</f>
+        <f>ABS(COS(A8/2))^2</f>
         <v/>
       </c>
       <c r="D8" s="3">
@@ -856,7 +833,7 @@
         <v/>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.9213</v>
+        <v>0.9661</v>
       </c>
       <c r="G8" s="3">
         <f>(ROW(G8)-ROW($A$3))*PI()/50</f>
@@ -881,7 +858,7 @@
         <v/>
       </c>
       <c r="B9" s="1">
-        <f>ABS(COS(A9))^2</f>
+        <f>ABS(COS(A9/2))^2</f>
         <v/>
       </c>
       <c r="D9" s="3">
@@ -889,7 +866,7 @@
         <v/>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.91395</v>
+        <v>0.95725</v>
       </c>
       <c r="G9" s="3">
         <f>(ROW(G9)-ROW($A$3))*PI()/50</f>
@@ -914,7 +891,7 @@
         <v/>
       </c>
       <c r="B10" s="1">
-        <f>ABS(COS(A10))^2</f>
+        <f>ABS(COS(A10/2))^2</f>
         <v/>
       </c>
       <c r="D10" s="3">
@@ -922,7 +899,7 @@
         <v/>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.904</v>
+        <v>0.9449</v>
       </c>
       <c r="G10" s="3">
         <f>(ROW(G10)-ROW($A$3))*PI()/50</f>
@@ -947,7 +924,7 @@
         <v/>
       </c>
       <c r="B11" s="1">
-        <f>ABS(COS(A11))^2</f>
+        <f>ABS(COS(A11/2))^2</f>
         <v/>
       </c>
       <c r="D11" s="3">
@@ -955,7 +932,7 @@
         <v/>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.89395</v>
+        <v>0.93425</v>
       </c>
       <c r="G11" s="3">
         <f>(ROW(G11)-ROW($A$3))*PI()/50</f>
@@ -980,7 +957,7 @@
         <v/>
       </c>
       <c r="B12" s="1">
-        <f>ABS(COS(A12))^2</f>
+        <f>ABS(COS(A12/2))^2</f>
         <v/>
       </c>
       <c r="D12" s="3">
@@ -988,7 +965,7 @@
         <v/>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.8854</v>
+        <v>0.9181</v>
       </c>
       <c r="G12" s="3">
         <f>(ROW(G12)-ROW($A$3))*PI()/50</f>
@@ -1013,7 +990,7 @@
         <v/>
       </c>
       <c r="B13" s="1">
-        <f>ABS(COS(A13))^2</f>
+        <f>ABS(COS(A13/2))^2</f>
         <v/>
       </c>
       <c r="D13" s="3">
@@ -1021,7 +998,7 @@
         <v/>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.87115</v>
+        <v>0.9001</v>
       </c>
       <c r="G13" s="3">
         <f>(ROW(G13)-ROW($A$3))*PI()/50</f>
@@ -1046,7 +1023,7 @@
         <v/>
       </c>
       <c r="B14" s="1">
-        <f>ABS(COS(A14))^2</f>
+        <f>ABS(COS(A14/2))^2</f>
         <v/>
       </c>
       <c r="D14" s="3">
@@ -1054,7 +1031,7 @@
         <v/>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.85945</v>
+        <v>0.8815499999999999</v>
       </c>
       <c r="G14" s="3">
         <f>(ROW(G14)-ROW($A$3))*PI()/50</f>
@@ -1079,7 +1056,7 @@
         <v/>
       </c>
       <c r="B15" s="1">
-        <f>ABS(COS(A15))^2</f>
+        <f>ABS(COS(A15/2))^2</f>
         <v/>
       </c>
       <c r="D15" s="3">
@@ -1087,7 +1064,7 @@
         <v/>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.84695</v>
+        <v>0.86765</v>
       </c>
       <c r="G15" s="3">
         <f>(ROW(G15)-ROW($A$3))*PI()/50</f>
@@ -1112,7 +1089,7 @@
         <v/>
       </c>
       <c r="B16" s="1">
-        <f>ABS(COS(A16))^2</f>
+        <f>ABS(COS(A16/2))^2</f>
         <v/>
       </c>
       <c r="D16" s="3">
@@ -1120,7 +1097,7 @@
         <v/>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.83355</v>
+        <v>0.83945</v>
       </c>
       <c r="G16" s="3">
         <f>(ROW(G16)-ROW($A$3))*PI()/50</f>
@@ -1145,7 +1122,7 @@
         <v/>
       </c>
       <c r="B17" s="1">
-        <f>ABS(COS(A17))^2</f>
+        <f>ABS(COS(A17/2))^2</f>
         <v/>
       </c>
       <c r="D17" s="3">
@@ -1153,7 +1130,7 @@
         <v/>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.81205</v>
+        <v>0.82255</v>
       </c>
       <c r="G17" s="3">
         <f>(ROW(G17)-ROW($A$3))*PI()/50</f>
@@ -1178,7 +1155,7 @@
         <v/>
       </c>
       <c r="B18" s="1">
-        <f>ABS(COS(A18))^2</f>
+        <f>ABS(COS(A18/2))^2</f>
         <v/>
       </c>
       <c r="D18" s="3">
@@ -1186,7 +1163,7 @@
         <v/>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.80065</v>
+        <v>0.79825</v>
       </c>
       <c r="G18" s="3">
         <f>(ROW(G18)-ROW($A$3))*PI()/50</f>
@@ -1211,7 +1188,7 @@
         <v/>
       </c>
       <c r="B19" s="1">
-        <f>ABS(COS(A19))^2</f>
+        <f>ABS(COS(A19/2))^2</f>
         <v/>
       </c>
       <c r="D19" s="3">
@@ -1219,7 +1196,7 @@
         <v/>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.78195</v>
+        <v>0.77615</v>
       </c>
       <c r="G19" s="3">
         <f>(ROW(G19)-ROW($A$3))*PI()/50</f>
@@ -1244,7 +1221,7 @@
         <v/>
       </c>
       <c r="B20" s="1">
-        <f>ABS(COS(A20))^2</f>
+        <f>ABS(COS(A20/2))^2</f>
         <v/>
       </c>
       <c r="D20" s="3">
@@ -1252,7 +1229,7 @@
         <v/>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.75745</v>
+        <v>0.7487</v>
       </c>
       <c r="G20" s="3">
         <f>(ROW(G20)-ROW($A$3))*PI()/50</f>
@@ -1277,7 +1254,7 @@
         <v/>
       </c>
       <c r="B21" s="1">
-        <f>ABS(COS(A21))^2</f>
+        <f>ABS(COS(A21/2))^2</f>
         <v/>
       </c>
       <c r="D21" s="3">
@@ -1285,7 +1262,7 @@
         <v/>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0.73965</v>
+        <v>0.7185</v>
       </c>
       <c r="G21" s="3">
         <f>(ROW(G21)-ROW($A$3))*PI()/50</f>
@@ -1310,7 +1287,7 @@
         <v/>
       </c>
       <c r="B22" s="1">
-        <f>ABS(COS(A22))^2</f>
+        <f>ABS(COS(A22/2))^2</f>
         <v/>
       </c>
       <c r="D22" s="3">
@@ -1318,7 +1295,7 @@
         <v/>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0.7149</v>
+        <v>0.6931</v>
       </c>
       <c r="G22" s="3">
         <f>(ROW(G22)-ROW($A$3))*PI()/50</f>
@@ -1343,7 +1320,7 @@
         <v/>
       </c>
       <c r="B23" s="1">
-        <f>ABS(COS(A23))^2</f>
+        <f>ABS(COS(A23/2))^2</f>
         <v/>
       </c>
       <c r="D23" s="3">
@@ -1351,7 +1328,7 @@
         <v/>
       </c>
       <c r="E23" s="1" t="n">
-        <v>0.7033</v>
+        <v>0.67045</v>
       </c>
       <c r="G23" s="3">
         <f>(ROW(G23)-ROW($A$3))*PI()/50</f>
@@ -1376,7 +1353,7 @@
         <v/>
       </c>
       <c r="B24" s="1">
-        <f>ABS(COS(A24))^2</f>
+        <f>ABS(COS(A24/2))^2</f>
         <v/>
       </c>
       <c r="D24" s="3">
@@ -1384,7 +1361,7 @@
         <v/>
       </c>
       <c r="E24" s="1" t="n">
-        <v>0.67965</v>
+        <v>0.63975</v>
       </c>
       <c r="G24" s="3">
         <f>(ROW(G24)-ROW($A$3))*PI()/50</f>
@@ -1409,7 +1386,7 @@
         <v/>
       </c>
       <c r="B25" s="1">
-        <f>ABS(COS(A25))^2</f>
+        <f>ABS(COS(A25/2))^2</f>
         <v/>
       </c>
       <c r="D25" s="3">
@@ -1417,7 +1394,7 @@
         <v/>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.6573</v>
+        <v>0.6199</v>
       </c>
       <c r="G25" s="3">
         <f>(ROW(G25)-ROW($A$3))*PI()/50</f>
@@ -1442,7 +1419,7 @@
         <v/>
       </c>
       <c r="B26" s="1">
-        <f>ABS(COS(A26))^2</f>
+        <f>ABS(COS(A26/2))^2</f>
         <v/>
       </c>
       <c r="D26" s="3">
@@ -1450,7 +1427,7 @@
         <v/>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0.6345</v>
+        <v>0.5818</v>
       </c>
       <c r="G26" s="3">
         <f>(ROW(G26)-ROW($A$3))*PI()/50</f>
@@ -1475,7 +1452,7 @@
         <v/>
       </c>
       <c r="B27" s="1">
-        <f>ABS(COS(A27))^2</f>
+        <f>ABS(COS(A27/2))^2</f>
         <v/>
       </c>
       <c r="D27" s="3">
@@ -1483,7 +1460,7 @@
         <v/>
       </c>
       <c r="E27" s="1" t="n">
-        <v>0.6165</v>
+        <v>0.5628</v>
       </c>
       <c r="G27" s="3">
         <f>(ROW(G27)-ROW($A$3))*PI()/50</f>
@@ -1508,7 +1485,7 @@
         <v/>
       </c>
       <c r="B28" s="1">
-        <f>ABS(COS(A28))^2</f>
+        <f>ABS(COS(A28/2))^2</f>
         <v/>
       </c>
       <c r="D28" s="3">
@@ -1516,7 +1493,7 @@
         <v/>
       </c>
       <c r="E28" s="1" t="n">
-        <v>0.58725</v>
+        <v>0.5214</v>
       </c>
       <c r="G28" s="3">
         <f>(ROW(G28)-ROW($A$3))*PI()/50</f>
@@ -1541,7 +1518,7 @@
         <v/>
       </c>
       <c r="B29" s="1">
-        <f>ABS(COS(A29))^2</f>
+        <f>ABS(COS(A29/2))^2</f>
         <v/>
       </c>
       <c r="D29" s="3">
@@ -1549,7 +1526,7 @@
         <v/>
       </c>
       <c r="E29" s="1" t="n">
-        <v>0.57315</v>
+        <v>0.49235</v>
       </c>
       <c r="G29" s="3">
         <f>(ROW(G29)-ROW($A$3))*PI()/50</f>
@@ -1574,7 +1551,7 @@
         <v/>
       </c>
       <c r="B30" s="1">
-        <f>ABS(COS(A30))^2</f>
+        <f>ABS(COS(A30/2))^2</f>
         <v/>
       </c>
       <c r="D30" s="3">
@@ -1582,7 +1559,7 @@
         <v/>
       </c>
       <c r="E30" s="1" t="n">
-        <v>0.5502</v>
+        <v>0.46915</v>
       </c>
       <c r="G30" s="3">
         <f>(ROW(G30)-ROW($A$3))*PI()/50</f>
@@ -1607,7 +1584,7 @@
         <v/>
       </c>
       <c r="B31" s="1">
-        <f>ABS(COS(A31))^2</f>
+        <f>ABS(COS(A31/2))^2</f>
         <v/>
       </c>
       <c r="D31" s="3">
@@ -1615,7 +1592,7 @@
         <v/>
       </c>
       <c r="E31" s="1" t="n">
-        <v>0.52585</v>
+        <v>0.4415</v>
       </c>
       <c r="G31" s="3">
         <f>(ROW(G31)-ROW($A$3))*PI()/50</f>
@@ -1640,7 +1617,7 @@
         <v/>
       </c>
       <c r="B32" s="1">
-        <f>ABS(COS(A32))^2</f>
+        <f>ABS(COS(A32/2))^2</f>
         <v/>
       </c>
       <c r="D32" s="3">
@@ -1648,7 +1625,7 @@
         <v/>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0.50095</v>
+        <v>0.40815</v>
       </c>
       <c r="G32" s="3">
         <f>(ROW(G32)-ROW($A$3))*PI()/50</f>
@@ -1673,7 +1650,7 @@
         <v/>
       </c>
       <c r="B33" s="1">
-        <f>ABS(COS(A33))^2</f>
+        <f>ABS(COS(A33/2))^2</f>
         <v/>
       </c>
       <c r="D33" s="3">
@@ -1681,7 +1658,7 @@
         <v/>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0.48025</v>
+        <v>0.38485</v>
       </c>
       <c r="G33" s="3">
         <f>(ROW(G33)-ROW($A$3))*PI()/50</f>
@@ -1706,7 +1683,7 @@
         <v/>
       </c>
       <c r="B34" s="1">
-        <f>ABS(COS(A34))^2</f>
+        <f>ABS(COS(A34/2))^2</f>
         <v/>
       </c>
       <c r="D34" s="3">
@@ -1714,7 +1691,7 @@
         <v/>
       </c>
       <c r="E34" s="1" t="n">
-        <v>0.4596</v>
+        <v>0.3518</v>
       </c>
       <c r="G34" s="3">
         <f>(ROW(G34)-ROW($A$3))*PI()/50</f>
@@ -1739,7 +1716,7 @@
         <v/>
       </c>
       <c r="B35" s="1">
-        <f>ABS(COS(A35))^2</f>
+        <f>ABS(COS(A35/2))^2</f>
         <v/>
       </c>
       <c r="D35" s="3">
@@ -1747,7 +1724,7 @@
         <v/>
       </c>
       <c r="E35" s="1" t="n">
-        <v>0.4483</v>
+        <v>0.3266</v>
       </c>
       <c r="G35" s="3">
         <f>(ROW(G35)-ROW($A$3))*PI()/50</f>
@@ -1772,7 +1749,7 @@
         <v/>
       </c>
       <c r="B36" s="1">
-        <f>ABS(COS(A36))^2</f>
+        <f>ABS(COS(A36/2))^2</f>
         <v/>
       </c>
       <c r="D36" s="3">
@@ -1780,7 +1757,7 @@
         <v/>
       </c>
       <c r="E36" s="1" t="n">
-        <v>0.42395</v>
+        <v>0.30305</v>
       </c>
       <c r="G36" s="3">
         <f>(ROW(G36)-ROW($A$3))*PI()/50</f>
@@ -1805,7 +1782,7 @@
         <v/>
       </c>
       <c r="B37" s="1">
-        <f>ABS(COS(A37))^2</f>
+        <f>ABS(COS(A37/2))^2</f>
         <v/>
       </c>
       <c r="D37" s="3">
@@ -1813,7 +1790,7 @@
         <v/>
       </c>
       <c r="E37" s="1" t="n">
-        <v>0.4078</v>
+        <v>0.27375</v>
       </c>
       <c r="G37" s="3">
         <f>(ROW(G37)-ROW($A$3))*PI()/50</f>
@@ -1838,7 +1815,7 @@
         <v/>
       </c>
       <c r="B38" s="1">
-        <f>ABS(COS(A38))^2</f>
+        <f>ABS(COS(A38/2))^2</f>
         <v/>
       </c>
       <c r="D38" s="3">
@@ -1846,7 +1823,7 @@
         <v/>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0.38535</v>
+        <v>0.25595</v>
       </c>
       <c r="G38" s="3">
         <f>(ROW(G38)-ROW($A$3))*PI()/50</f>
@@ -1871,7 +1848,7 @@
         <v/>
       </c>
       <c r="B39" s="1">
-        <f>ABS(COS(A39))^2</f>
+        <f>ABS(COS(A39/2))^2</f>
         <v/>
       </c>
       <c r="D39" s="3">
@@ -1879,7 +1856,7 @@
         <v/>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0.36705</v>
+        <v>0.231</v>
       </c>
       <c r="G39" s="3">
         <f>(ROW(G39)-ROW($A$3))*PI()/50</f>
@@ -1904,7 +1881,7 @@
         <v/>
       </c>
       <c r="B40" s="1">
-        <f>ABS(COS(A40))^2</f>
+        <f>ABS(COS(A40/2))^2</f>
         <v/>
       </c>
       <c r="D40" s="3">
@@ -1912,7 +1889,7 @@
         <v/>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0.3503</v>
+        <v>0.2091</v>
       </c>
       <c r="G40" s="3">
         <f>(ROW(G40)-ROW($A$3))*PI()/50</f>
@@ -1937,7 +1914,7 @@
         <v/>
       </c>
       <c r="B41" s="1">
-        <f>ABS(COS(A41))^2</f>
+        <f>ABS(COS(A41/2))^2</f>
         <v/>
       </c>
       <c r="D41" s="3">
@@ -1945,7 +1922,7 @@
         <v/>
       </c>
       <c r="E41" s="1" t="n">
-        <v>0.339</v>
+        <v>0.18675</v>
       </c>
       <c r="G41" s="3">
         <f>(ROW(G41)-ROW($A$3))*PI()/50</f>
@@ -1970,7 +1947,7 @@
         <v/>
       </c>
       <c r="B42" s="1">
-        <f>ABS(COS(A42))^2</f>
+        <f>ABS(COS(A42/2))^2</f>
         <v/>
       </c>
       <c r="D42" s="3">
@@ -1978,7 +1955,7 @@
         <v/>
       </c>
       <c r="E42" s="1" t="n">
-        <v>0.32805</v>
+        <v>0.1665</v>
       </c>
       <c r="G42" s="3">
         <f>(ROW(G42)-ROW($A$3))*PI()/50</f>
@@ -2003,7 +1980,7 @@
         <v/>
       </c>
       <c r="B43" s="1">
-        <f>ABS(COS(A43))^2</f>
+        <f>ABS(COS(A43/2))^2</f>
         <v/>
       </c>
       <c r="D43" s="3">
@@ -2011,7 +1988,7 @@
         <v/>
       </c>
       <c r="E43" s="1" t="n">
-        <v>0.30615</v>
+        <v>0.1519</v>
       </c>
       <c r="G43" s="3">
         <f>(ROW(G43)-ROW($A$3))*PI()/50</f>
@@ -2036,7 +2013,7 @@
         <v/>
       </c>
       <c r="B44" s="1">
-        <f>ABS(COS(A44))^2</f>
+        <f>ABS(COS(A44/2))^2</f>
         <v/>
       </c>
       <c r="D44" s="3">
@@ -2044,7 +2021,7 @@
         <v/>
       </c>
       <c r="E44" s="1" t="n">
-        <v>0.29785</v>
+        <v>0.13135</v>
       </c>
       <c r="G44" s="3">
         <f>(ROW(G44)-ROW($A$3))*PI()/50</f>
@@ -2069,7 +2046,7 @@
         <v/>
       </c>
       <c r="B45" s="1">
-        <f>ABS(COS(A45))^2</f>
+        <f>ABS(COS(A45/2))^2</f>
         <v/>
       </c>
       <c r="D45" s="3">
@@ -2077,7 +2054,7 @@
         <v/>
       </c>
       <c r="E45" s="1" t="n">
-        <v>0.2844</v>
+        <v>0.1208</v>
       </c>
       <c r="G45" s="3">
         <f>(ROW(G45)-ROW($A$3))*PI()/50</f>
@@ -2102,7 +2079,7 @@
         <v/>
       </c>
       <c r="B46" s="1">
-        <f>ABS(COS(A46))^2</f>
+        <f>ABS(COS(A46/2))^2</f>
         <v/>
       </c>
       <c r="D46" s="3">
@@ -2110,7 +2087,7 @@
         <v/>
       </c>
       <c r="E46" s="1" t="n">
-        <v>0.2759</v>
+        <v>0.1051</v>
       </c>
       <c r="G46" s="3">
         <f>(ROW(G46)-ROW($A$3))*PI()/50</f>
@@ -2135,7 +2112,7 @@
         <v/>
       </c>
       <c r="B47" s="1">
-        <f>ABS(COS(A47))^2</f>
+        <f>ABS(COS(A47/2))^2</f>
         <v/>
       </c>
       <c r="D47" s="3">
@@ -2143,7 +2120,7 @@
         <v/>
       </c>
       <c r="E47" s="1" t="n">
-        <v>0.2627</v>
+        <v>0.09725</v>
       </c>
       <c r="G47" s="3">
         <f>(ROW(G47)-ROW($A$3))*PI()/50</f>
@@ -2168,7 +2145,7 @@
         <v/>
       </c>
       <c r="B48" s="1">
-        <f>ABS(COS(A48))^2</f>
+        <f>ABS(COS(A48/2))^2</f>
         <v/>
       </c>
       <c r="D48" s="3">
@@ -2176,7 +2153,7 @@
         <v/>
       </c>
       <c r="E48" s="1" t="n">
-        <v>0.2605</v>
+        <v>0.0791</v>
       </c>
       <c r="G48" s="3">
         <f>(ROW(G48)-ROW($A$3))*PI()/50</f>
@@ -2201,7 +2178,7 @@
         <v/>
       </c>
       <c r="B49" s="1">
-        <f>ABS(COS(A49))^2</f>
+        <f>ABS(COS(A49/2))^2</f>
         <v/>
       </c>
       <c r="D49" s="3">
@@ -2209,7 +2186,7 @@
         <v/>
       </c>
       <c r="E49" s="1" t="n">
-        <v>0.2517</v>
+        <v>0.076</v>
       </c>
       <c r="G49" s="3">
         <f>(ROW(G49)-ROW($A$3))*PI()/50</f>
@@ -2234,7 +2211,7 @@
         <v/>
       </c>
       <c r="B50" s="1">
-        <f>ABS(COS(A50))^2</f>
+        <f>ABS(COS(A50/2))^2</f>
         <v/>
       </c>
       <c r="D50" s="3">
@@ -2242,7 +2219,7 @@
         <v/>
       </c>
       <c r="E50" s="1" t="n">
-        <v>0.24375</v>
+        <v>0.0689</v>
       </c>
       <c r="G50" s="3">
         <f>(ROW(G50)-ROW($A$3))*PI()/50</f>
@@ -2267,7 +2244,7 @@
         <v/>
       </c>
       <c r="B51" s="1">
-        <f>ABS(COS(A51))^2</f>
+        <f>ABS(COS(A51/2))^2</f>
         <v/>
       </c>
       <c r="D51" s="3">
@@ -2275,7 +2252,7 @@
         <v/>
       </c>
       <c r="E51" s="1" t="n">
-        <v>0.24075</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="G51" s="3">
         <f>(ROW(G51)-ROW($A$3))*PI()/50</f>
@@ -2300,7 +2277,7 @@
         <v/>
       </c>
       <c r="B52" s="1">
-        <f>ABS(COS(A52))^2</f>
+        <f>ABS(COS(A52/2))^2</f>
         <v/>
       </c>
       <c r="D52" s="3">
@@ -2308,7 +2285,7 @@
         <v/>
       </c>
       <c r="E52" s="1" t="n">
-        <v>0.2324</v>
+        <v>0.06</v>
       </c>
       <c r="G52" s="3">
         <f>(ROW(G52)-ROW($A$3))*PI()/50</f>
@@ -2333,7 +2310,7 @@
         <v/>
       </c>
       <c r="B53" s="1">
-        <f>ABS(COS(A53))^2</f>
+        <f>ABS(COS(A53/2))^2</f>
         <v/>
       </c>
       <c r="D53" s="3">
@@ -2341,7 +2318,7 @@
         <v/>
       </c>
       <c r="E53" s="1" t="n">
-        <v>0.2335</v>
+        <v>0.0549</v>
       </c>
       <c r="G53" s="3">
         <f>(ROW(G53)-ROW($A$3))*PI()/50</f>
@@ -2366,7 +2343,7 @@
         <v/>
       </c>
       <c r="B54" s="1">
-        <f>ABS(COS(A54))^2</f>
+        <f>ABS(COS(A54/2))^2</f>
         <v/>
       </c>
       <c r="D54" s="3">
@@ -2374,7 +2351,7 @@
         <v/>
       </c>
       <c r="E54" s="1" t="n">
-        <v>0.23655</v>
+        <v>0.06165</v>
       </c>
       <c r="G54" s="3">
         <f>(ROW(G54)-ROW($A$3))*PI()/50</f>
@@ -2399,7 +2376,7 @@
         <v/>
       </c>
       <c r="B55" s="1">
-        <f>ABS(COS(A55))^2</f>
+        <f>ABS(COS(A55/2))^2</f>
         <v/>
       </c>
       <c r="D55" s="3">
@@ -2407,7 +2384,7 @@
         <v/>
       </c>
       <c r="E55" s="1" t="n">
-        <v>0.2435</v>
+        <v>0.06275</v>
       </c>
       <c r="G55" s="3">
         <f>(ROW(G55)-ROW($A$3))*PI()/50</f>
@@ -2432,7 +2409,7 @@
         <v/>
       </c>
       <c r="B56" s="1">
-        <f>ABS(COS(A56))^2</f>
+        <f>ABS(COS(A56/2))^2</f>
         <v/>
       </c>
       <c r="D56" s="3">
@@ -2440,7 +2417,7 @@
         <v/>
       </c>
       <c r="E56" s="1" t="n">
-        <v>0.2434</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="G56" s="3">
         <f>(ROW(G56)-ROW($A$3))*PI()/50</f>
@@ -2465,7 +2442,7 @@
         <v/>
       </c>
       <c r="B57" s="1">
-        <f>ABS(COS(A57))^2</f>
+        <f>ABS(COS(A57/2))^2</f>
         <v/>
       </c>
       <c r="D57" s="3">
@@ -2473,7 +2450,7 @@
         <v/>
       </c>
       <c r="E57" s="1" t="n">
-        <v>0.2489</v>
+        <v>0.0706</v>
       </c>
       <c r="G57" s="3">
         <f>(ROW(G57)-ROW($A$3))*PI()/50</f>
@@ -2498,7 +2475,7 @@
         <v/>
       </c>
       <c r="B58" s="1">
-        <f>ABS(COS(A58))^2</f>
+        <f>ABS(COS(A58/2))^2</f>
         <v/>
       </c>
       <c r="D58" s="3">
@@ -2506,7 +2483,7 @@
         <v/>
       </c>
       <c r="E58" s="1" t="n">
-        <v>0.25</v>
+        <v>0.0843</v>
       </c>
       <c r="G58" s="3">
         <f>(ROW(G58)-ROW($A$3))*PI()/50</f>
@@ -2531,7 +2508,7 @@
         <v/>
       </c>
       <c r="B59" s="1">
-        <f>ABS(COS(A59))^2</f>
+        <f>ABS(COS(A59/2))^2</f>
         <v/>
       </c>
       <c r="D59" s="3">
@@ -2539,7 +2516,7 @@
         <v/>
       </c>
       <c r="E59" s="1" t="n">
-        <v>0.2588</v>
+        <v>0.09385</v>
       </c>
       <c r="G59" s="3">
         <f>(ROW(G59)-ROW($A$3))*PI()/50</f>
@@ -2564,7 +2541,7 @@
         <v/>
       </c>
       <c r="B60" s="1">
-        <f>ABS(COS(A60))^2</f>
+        <f>ABS(COS(A60/2))^2</f>
         <v/>
       </c>
       <c r="D60" s="3">
@@ -2572,7 +2549,7 @@
         <v/>
       </c>
       <c r="E60" s="1" t="n">
-        <v>0.2665</v>
+        <v>0.0997</v>
       </c>
       <c r="G60" s="3">
         <f>(ROW(G60)-ROW($A$3))*PI()/50</f>
@@ -2597,7 +2574,7 @@
         <v/>
       </c>
       <c r="B61" s="1">
-        <f>ABS(COS(A61))^2</f>
+        <f>ABS(COS(A61/2))^2</f>
         <v/>
       </c>
       <c r="D61" s="3">
@@ -2605,7 +2582,7 @@
         <v/>
       </c>
       <c r="E61" s="1" t="n">
-        <v>0.26615</v>
+        <v>0.11575</v>
       </c>
       <c r="G61" s="3">
         <f>(ROW(G61)-ROW($A$3))*PI()/50</f>
@@ -2630,7 +2607,7 @@
         <v/>
       </c>
       <c r="B62" s="1">
-        <f>ABS(COS(A62))^2</f>
+        <f>ABS(COS(A62/2))^2</f>
         <v/>
       </c>
       <c r="D62" s="3">
@@ -2638,7 +2615,7 @@
         <v/>
       </c>
       <c r="E62" s="1" t="n">
-        <v>0.28855</v>
+        <v>0.1291</v>
       </c>
       <c r="G62" s="3">
         <f>(ROW(G62)-ROW($A$3))*PI()/50</f>
@@ -2663,7 +2640,7 @@
         <v/>
       </c>
       <c r="B63" s="1">
-        <f>ABS(COS(A63))^2</f>
+        <f>ABS(COS(A63/2))^2</f>
         <v/>
       </c>
       <c r="D63" s="3">
@@ -2671,7 +2648,7 @@
         <v/>
       </c>
       <c r="E63" s="1" t="n">
-        <v>0.29665</v>
+        <v>0.1479</v>
       </c>
       <c r="G63" s="3">
         <f>(ROW(G63)-ROW($A$3))*PI()/50</f>
@@ -2696,7 +2673,7 @@
         <v/>
       </c>
       <c r="B64" s="1">
-        <f>ABS(COS(A64))^2</f>
+        <f>ABS(COS(A64/2))^2</f>
         <v/>
       </c>
       <c r="D64" s="3">
@@ -2704,7 +2681,7 @@
         <v/>
       </c>
       <c r="E64" s="1" t="n">
-        <v>0.30865</v>
+        <v>0.16115</v>
       </c>
       <c r="G64" s="3">
         <f>(ROW(G64)-ROW($A$3))*PI()/50</f>
@@ -2729,7 +2706,7 @@
         <v/>
       </c>
       <c r="B65" s="1">
-        <f>ABS(COS(A65))^2</f>
+        <f>ABS(COS(A65/2))^2</f>
         <v/>
       </c>
       <c r="D65" s="3">
@@ -2737,7 +2714,7 @@
         <v/>
       </c>
       <c r="E65" s="1" t="n">
-        <v>0.3129</v>
+        <v>0.1852</v>
       </c>
       <c r="G65" s="3">
         <f>(ROW(G65)-ROW($A$3))*PI()/50</f>
@@ -2762,7 +2739,7 @@
         <v/>
       </c>
       <c r="B66" s="1">
-        <f>ABS(COS(A66))^2</f>
+        <f>ABS(COS(A66/2))^2</f>
         <v/>
       </c>
       <c r="D66" s="3">
@@ -2770,7 +2747,7 @@
         <v/>
       </c>
       <c r="E66" s="1" t="n">
-        <v>0.33385</v>
+        <v>0.20485</v>
       </c>
       <c r="G66" s="3">
         <f>(ROW(G66)-ROW($A$3))*PI()/50</f>
@@ -2795,7 +2772,7 @@
         <v/>
       </c>
       <c r="B67" s="1">
-        <f>ABS(COS(A67))^2</f>
+        <f>ABS(COS(A67/2))^2</f>
         <v/>
       </c>
       <c r="D67" s="3">
@@ -2803,7 +2780,7 @@
         <v/>
       </c>
       <c r="E67" s="1" t="n">
-        <v>0.3559</v>
+        <v>0.22385</v>
       </c>
       <c r="G67" s="3">
         <f>(ROW(G67)-ROW($A$3))*PI()/50</f>
@@ -2828,7 +2805,7 @@
         <v/>
       </c>
       <c r="B68" s="1">
-        <f>ABS(COS(A68))^2</f>
+        <f>ABS(COS(A68/2))^2</f>
         <v/>
       </c>
       <c r="D68" s="3">
@@ -2836,7 +2813,7 @@
         <v/>
       </c>
       <c r="E68" s="1" t="n">
-        <v>0.36395</v>
+        <v>0.24725</v>
       </c>
       <c r="G68" s="3">
         <f>(ROW(G68)-ROW($A$3))*PI()/50</f>
@@ -2861,7 +2838,7 @@
         <v/>
       </c>
       <c r="B69" s="1">
-        <f>ABS(COS(A69))^2</f>
+        <f>ABS(COS(A69/2))^2</f>
         <v/>
       </c>
       <c r="D69" s="3">
@@ -2869,7 +2846,7 @@
         <v/>
       </c>
       <c r="E69" s="1" t="n">
-        <v>0.3838</v>
+        <v>0.27175</v>
       </c>
       <c r="G69" s="3">
         <f>(ROW(G69)-ROW($A$3))*PI()/50</f>
@@ -2894,7 +2871,7 @@
         <v/>
       </c>
       <c r="B70" s="1">
-        <f>ABS(COS(A70))^2</f>
+        <f>ABS(COS(A70/2))^2</f>
         <v/>
       </c>
       <c r="D70" s="3">
@@ -2902,7 +2879,7 @@
         <v/>
       </c>
       <c r="E70" s="1" t="n">
-        <v>0.4074</v>
+        <v>0.2978</v>
       </c>
       <c r="G70" s="3">
         <f>(ROW(G70)-ROW($A$3))*PI()/50</f>
@@ -2927,7 +2904,7 @@
         <v/>
       </c>
       <c r="B71" s="1">
-        <f>ABS(COS(A71))^2</f>
+        <f>ABS(COS(A71/2))^2</f>
         <v/>
       </c>
       <c r="D71" s="3">
@@ -2935,7 +2912,7 @@
         <v/>
       </c>
       <c r="E71" s="1" t="n">
-        <v>0.42685</v>
+        <v>0.3196</v>
       </c>
       <c r="G71" s="3">
         <f>(ROW(G71)-ROW($A$3))*PI()/50</f>
@@ -2960,7 +2937,7 @@
         <v/>
       </c>
       <c r="B72" s="1">
-        <f>ABS(COS(A72))^2</f>
+        <f>ABS(COS(A72/2))^2</f>
         <v/>
       </c>
       <c r="D72" s="3">
@@ -2968,7 +2945,7 @@
         <v/>
       </c>
       <c r="E72" s="1" t="n">
-        <v>0.44155</v>
+        <v>0.347</v>
       </c>
       <c r="G72" s="3">
         <f>(ROW(G72)-ROW($A$3))*PI()/50</f>
@@ -2993,7 +2970,7 @@
         <v/>
       </c>
       <c r="B73" s="1">
-        <f>ABS(COS(A73))^2</f>
+        <f>ABS(COS(A73/2))^2</f>
         <v/>
       </c>
       <c r="D73" s="3">
@@ -3001,7 +2978,7 @@
         <v/>
       </c>
       <c r="E73" s="1" t="n">
-        <v>0.4669</v>
+        <v>0.37075</v>
       </c>
       <c r="G73" s="3">
         <f>(ROW(G73)-ROW($A$3))*PI()/50</f>
@@ -3026,7 +3003,7 @@
         <v/>
       </c>
       <c r="B74" s="1">
-        <f>ABS(COS(A74))^2</f>
+        <f>ABS(COS(A74/2))^2</f>
         <v/>
       </c>
       <c r="D74" s="3">
@@ -3034,7 +3011,7 @@
         <v/>
       </c>
       <c r="E74" s="1" t="n">
-        <v>0.48315</v>
+        <v>0.4029</v>
       </c>
       <c r="G74" s="3">
         <f>(ROW(G74)-ROW($A$3))*PI()/50</f>
@@ -3059,7 +3036,7 @@
         <v/>
       </c>
       <c r="B75" s="1">
-        <f>ABS(COS(A75))^2</f>
+        <f>ABS(COS(A75/2))^2</f>
         <v/>
       </c>
       <c r="D75" s="3">
@@ -3067,7 +3044,7 @@
         <v/>
       </c>
       <c r="E75" s="1" t="n">
-        <v>0.5024999999999999</v>
+        <v>0.42895</v>
       </c>
       <c r="G75" s="3">
         <f>(ROW(G75)-ROW($A$3))*PI()/50</f>
@@ -3092,7 +3069,7 @@
         <v/>
       </c>
       <c r="B76" s="1">
-        <f>ABS(COS(A76))^2</f>
+        <f>ABS(COS(A76/2))^2</f>
         <v/>
       </c>
       <c r="D76" s="3">
@@ -3100,7 +3077,7 @@
         <v/>
       </c>
       <c r="E76" s="1" t="n">
-        <v>0.5288</v>
+        <v>0.46535</v>
       </c>
       <c r="G76" s="3">
         <f>(ROW(G76)-ROW($A$3))*PI()/50</f>
@@ -3125,7 +3102,7 @@
         <v/>
       </c>
       <c r="B77" s="1">
-        <f>ABS(COS(A77))^2</f>
+        <f>ABS(COS(A77/2))^2</f>
         <v/>
       </c>
       <c r="D77" s="3">
@@ -3133,7 +3110,7 @@
         <v/>
       </c>
       <c r="E77" s="1" t="n">
-        <v>0.55145</v>
+        <v>0.48885</v>
       </c>
       <c r="G77" s="3">
         <f>(ROW(G77)-ROW($A$3))*PI()/50</f>
@@ -3158,7 +3135,7 @@
         <v/>
       </c>
       <c r="B78" s="1">
-        <f>ABS(COS(A78))^2</f>
+        <f>ABS(COS(A78/2))^2</f>
         <v/>
       </c>
       <c r="D78" s="3">
@@ -3166,7 +3143,7 @@
         <v/>
       </c>
       <c r="E78" s="1" t="n">
-        <v>0.5709</v>
+        <v>0.52125</v>
       </c>
       <c r="G78" s="3">
         <f>(ROW(G78)-ROW($A$3))*PI()/50</f>
@@ -3191,7 +3168,7 @@
         <v/>
       </c>
       <c r="B79" s="1">
-        <f>ABS(COS(A79))^2</f>
+        <f>ABS(COS(A79/2))^2</f>
         <v/>
       </c>
       <c r="D79" s="3">
@@ -3199,7 +3176,7 @@
         <v/>
       </c>
       <c r="E79" s="1" t="n">
-        <v>0.5905</v>
+        <v>0.5498499999999999</v>
       </c>
       <c r="G79" s="3">
         <f>(ROW(G79)-ROW($A$3))*PI()/50</f>
@@ -3224,7 +3201,7 @@
         <v/>
       </c>
       <c r="B80" s="1">
-        <f>ABS(COS(A80))^2</f>
+        <f>ABS(COS(A80/2))^2</f>
         <v/>
       </c>
       <c r="D80" s="3">
@@ -3232,7 +3209,7 @@
         <v/>
       </c>
       <c r="E80" s="1" t="n">
-        <v>0.61195</v>
+        <v>0.57855</v>
       </c>
       <c r="G80" s="3">
         <f>(ROW(G80)-ROW($A$3))*PI()/50</f>
@@ -3257,7 +3234,7 @@
         <v/>
       </c>
       <c r="B81" s="1">
-        <f>ABS(COS(A81))^2</f>
+        <f>ABS(COS(A81/2))^2</f>
         <v/>
       </c>
       <c r="D81" s="3">
@@ -3265,7 +3242,7 @@
         <v/>
       </c>
       <c r="E81" s="1" t="n">
-        <v>0.6405999999999999</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="G81" s="3">
         <f>(ROW(G81)-ROW($A$3))*PI()/50</f>
@@ -3290,7 +3267,7 @@
         <v/>
       </c>
       <c r="B82" s="1">
-        <f>ABS(COS(A82))^2</f>
+        <f>ABS(COS(A82/2))^2</f>
         <v/>
       </c>
       <c r="D82" s="3">
@@ -3298,7 +3275,7 @@
         <v/>
       </c>
       <c r="E82" s="1" t="n">
-        <v>0.66155</v>
+        <v>0.6407</v>
       </c>
       <c r="G82" s="3">
         <f>(ROW(G82)-ROW($A$3))*PI()/50</f>
@@ -3323,7 +3300,7 @@
         <v/>
       </c>
       <c r="B83" s="1">
-        <f>ABS(COS(A83))^2</f>
+        <f>ABS(COS(A83/2))^2</f>
         <v/>
       </c>
       <c r="D83" s="3">
@@ -3331,7 +3308,7 @@
         <v/>
       </c>
       <c r="E83" s="1" t="n">
-        <v>0.6803</v>
+        <v>0.6631</v>
       </c>
       <c r="G83" s="3">
         <f>(ROW(G83)-ROW($A$3))*PI()/50</f>
@@ -3356,7 +3333,7 @@
         <v/>
       </c>
       <c r="B84" s="1">
-        <f>ABS(COS(A84))^2</f>
+        <f>ABS(COS(A84/2))^2</f>
         <v/>
       </c>
       <c r="D84" s="3">
@@ -3364,7 +3341,7 @@
         <v/>
       </c>
       <c r="E84" s="1" t="n">
-        <v>0.70295</v>
+        <v>0.6879</v>
       </c>
       <c r="G84" s="3">
         <f>(ROW(G84)-ROW($A$3))*PI()/50</f>
@@ -3389,7 +3366,7 @@
         <v/>
       </c>
       <c r="B85" s="1">
-        <f>ABS(COS(A85))^2</f>
+        <f>ABS(COS(A85/2))^2</f>
         <v/>
       </c>
       <c r="D85" s="3">
@@ -3397,7 +3374,7 @@
         <v/>
       </c>
       <c r="E85" s="1" t="n">
-        <v>0.71735</v>
+        <v>0.7137</v>
       </c>
       <c r="G85" s="3">
         <f>(ROW(G85)-ROW($A$3))*PI()/50</f>
@@ -3422,7 +3399,7 @@
         <v/>
       </c>
       <c r="B86" s="1">
-        <f>ABS(COS(A86))^2</f>
+        <f>ABS(COS(A86/2))^2</f>
         <v/>
       </c>
       <c r="D86" s="3">
@@ -3430,7 +3407,7 @@
         <v/>
       </c>
       <c r="E86" s="1" t="n">
-        <v>0.73745</v>
+        <v>0.7442</v>
       </c>
       <c r="G86" s="3">
         <f>(ROW(G86)-ROW($A$3))*PI()/50</f>
@@ -3455,7 +3432,7 @@
         <v/>
       </c>
       <c r="B87" s="1">
-        <f>ABS(COS(A87))^2</f>
+        <f>ABS(COS(A87/2))^2</f>
         <v/>
       </c>
       <c r="D87" s="3">
@@ -3463,7 +3440,7 @@
         <v/>
       </c>
       <c r="E87" s="1" t="n">
-        <v>0.75735</v>
+        <v>0.7668</v>
       </c>
       <c r="G87" s="3">
         <f>(ROW(G87)-ROW($A$3))*PI()/50</f>
@@ -3488,7 +3465,7 @@
         <v/>
       </c>
       <c r="B88" s="1">
-        <f>ABS(COS(A88))^2</f>
+        <f>ABS(COS(A88/2))^2</f>
         <v/>
       </c>
       <c r="D88" s="3">
@@ -3496,7 +3473,7 @@
         <v/>
       </c>
       <c r="E88" s="1" t="n">
-        <v>0.78005</v>
+        <v>0.7909</v>
       </c>
       <c r="G88" s="3">
         <f>(ROW(G88)-ROW($A$3))*PI()/50</f>
@@ -3521,7 +3498,7 @@
         <v/>
       </c>
       <c r="B89" s="1">
-        <f>ABS(COS(A89))^2</f>
+        <f>ABS(COS(A89/2))^2</f>
         <v/>
       </c>
       <c r="D89" s="3">
@@ -3529,7 +3506,7 @@
         <v/>
       </c>
       <c r="E89" s="1" t="n">
-        <v>0.79395</v>
+        <v>0.8192</v>
       </c>
       <c r="G89" s="3">
         <f>(ROW(G89)-ROW($A$3))*PI()/50</f>
@@ -3554,7 +3531,7 @@
         <v/>
       </c>
       <c r="B90" s="1">
-        <f>ABS(COS(A90))^2</f>
+        <f>ABS(COS(A90/2))^2</f>
         <v/>
       </c>
       <c r="D90" s="3">
@@ -3562,7 +3539,7 @@
         <v/>
       </c>
       <c r="E90" s="1" t="n">
-        <v>0.8118</v>
+        <v>0.8384</v>
       </c>
       <c r="G90" s="3">
         <f>(ROW(G90)-ROW($A$3))*PI()/50</f>
@@ -3587,7 +3564,7 @@
         <v/>
       </c>
       <c r="B91" s="1">
-        <f>ABS(COS(A91))^2</f>
+        <f>ABS(COS(A91/2))^2</f>
         <v/>
       </c>
       <c r="D91" s="3">
@@ -3595,7 +3572,7 @@
         <v/>
       </c>
       <c r="E91" s="1" t="n">
-        <v>0.82955</v>
+        <v>0.8563</v>
       </c>
       <c r="G91" s="3">
         <f>(ROW(G91)-ROW($A$3))*PI()/50</f>
@@ -3620,7 +3597,7 @@
         <v/>
       </c>
       <c r="B92" s="1">
-        <f>ABS(COS(A92))^2</f>
+        <f>ABS(COS(A92/2))^2</f>
         <v/>
       </c>
       <c r="D92" s="3">
@@ -3628,7 +3605,7 @@
         <v/>
       </c>
       <c r="E92" s="1" t="n">
-        <v>0.847</v>
+        <v>0.87875</v>
       </c>
       <c r="G92" s="3">
         <f>(ROW(G92)-ROW($A$3))*PI()/50</f>
@@ -3653,7 +3630,7 @@
         <v/>
       </c>
       <c r="B93" s="1">
-        <f>ABS(COS(A93))^2</f>
+        <f>ABS(COS(A93/2))^2</f>
         <v/>
       </c>
       <c r="D93" s="3">
@@ -3661,7 +3638,7 @@
         <v/>
       </c>
       <c r="E93" s="1" t="n">
-        <v>0.8615</v>
+        <v>0.9007500000000001</v>
       </c>
       <c r="G93" s="3">
         <f>(ROW(G93)-ROW($A$3))*PI()/50</f>
@@ -3686,7 +3663,7 @@
         <v/>
       </c>
       <c r="B94" s="1">
-        <f>ABS(COS(A94))^2</f>
+        <f>ABS(COS(A94/2))^2</f>
         <v/>
       </c>
       <c r="D94" s="3">
@@ -3694,7 +3671,7 @@
         <v/>
       </c>
       <c r="E94" s="1" t="n">
-        <v>0.8677</v>
+        <v>0.9104</v>
       </c>
       <c r="G94" s="3">
         <f>(ROW(G94)-ROW($A$3))*PI()/50</f>
@@ -3719,7 +3696,7 @@
         <v/>
       </c>
       <c r="B95" s="1">
-        <f>ABS(COS(A95))^2</f>
+        <f>ABS(COS(A95/2))^2</f>
         <v/>
       </c>
       <c r="D95" s="3">
@@ -3727,7 +3704,7 @@
         <v/>
       </c>
       <c r="E95" s="1" t="n">
-        <v>0.88565</v>
+        <v>0.9288999999999999</v>
       </c>
       <c r="G95" s="3">
         <f>(ROW(G95)-ROW($A$3))*PI()/50</f>
@@ -3752,7 +3729,7 @@
         <v/>
       </c>
       <c r="B96" s="1">
-        <f>ABS(COS(A96))^2</f>
+        <f>ABS(COS(A96/2))^2</f>
         <v/>
       </c>
       <c r="D96" s="3">
@@ -3760,7 +3737,7 @@
         <v/>
       </c>
       <c r="E96" s="1" t="n">
-        <v>0.8952</v>
+        <v>0.9426</v>
       </c>
       <c r="G96" s="3">
         <f>(ROW(G96)-ROW($A$3))*PI()/50</f>
@@ -3785,7 +3762,7 @@
         <v/>
       </c>
       <c r="B97" s="1">
-        <f>ABS(COS(A97))^2</f>
+        <f>ABS(COS(A97/2))^2</f>
         <v/>
       </c>
       <c r="D97" s="3">
@@ -3793,7 +3770,7 @@
         <v/>
       </c>
       <c r="E97" s="1" t="n">
-        <v>0.90535</v>
+        <v>0.95355</v>
       </c>
       <c r="G97" s="3">
         <f>(ROW(G97)-ROW($A$3))*PI()/50</f>
@@ -3818,7 +3795,7 @@
         <v/>
       </c>
       <c r="B98" s="1">
-        <f>ABS(COS(A98))^2</f>
+        <f>ABS(COS(A98/2))^2</f>
         <v/>
       </c>
       <c r="D98" s="3">
@@ -3826,7 +3803,7 @@
         <v/>
       </c>
       <c r="E98" s="1" t="n">
-        <v>0.9147</v>
+        <v>0.9631</v>
       </c>
       <c r="G98" s="3">
         <f>(ROW(G98)-ROW($A$3))*PI()/50</f>
@@ -3851,7 +3828,7 @@
         <v/>
       </c>
       <c r="B99" s="1">
-        <f>ABS(COS(A99))^2</f>
+        <f>ABS(COS(A99/2))^2</f>
         <v/>
       </c>
       <c r="D99" s="3">
@@ -3859,7 +3836,7 @@
         <v/>
       </c>
       <c r="E99" s="1" t="n">
-        <v>0.9236</v>
+        <v>0.9732</v>
       </c>
       <c r="G99" s="3">
         <f>(ROW(G99)-ROW($A$3))*PI()/50</f>
@@ -3884,7 +3861,7 @@
         <v/>
       </c>
       <c r="B100" s="1">
-        <f>ABS(COS(A100))^2</f>
+        <f>ABS(COS(A100/2))^2</f>
         <v/>
       </c>
       <c r="D100" s="3">
@@ -3892,7 +3869,7 @@
         <v/>
       </c>
       <c r="E100" s="1" t="n">
-        <v>0.9246</v>
+        <v>0.9803500000000001</v>
       </c>
       <c r="G100" s="3">
         <f>(ROW(G100)-ROW($A$3))*PI()/50</f>
@@ -3917,7 +3894,7 @@
         <v/>
       </c>
       <c r="B101" s="1">
-        <f>ABS(COS(A101))^2</f>
+        <f>ABS(COS(A101/2))^2</f>
         <v/>
       </c>
       <c r="D101" s="3">
@@ -3925,7 +3902,7 @@
         <v/>
       </c>
       <c r="E101" s="1" t="n">
-        <v>0.9325</v>
+        <v>0.98445</v>
       </c>
       <c r="G101" s="3">
         <f>(ROW(G101)-ROW($A$3))*PI()/50</f>
@@ -3950,7 +3927,7 @@
         <v/>
       </c>
       <c r="B102" s="1">
-        <f>ABS(COS(A102))^2</f>
+        <f>ABS(COS(A102/2))^2</f>
         <v/>
       </c>
       <c r="D102" s="3">
@@ -3958,7 +3935,7 @@
         <v/>
       </c>
       <c r="E102" s="1" t="n">
-        <v>0.9334</v>
+        <v>0.98905</v>
       </c>
       <c r="G102" s="3">
         <f>(ROW(G102)-ROW($A$3))*PI()/50</f>
@@ -3983,7 +3960,7 @@
         <v/>
       </c>
       <c r="B103" s="5">
-        <f>ABS(COS(A103))^2</f>
+        <f>ABS(COS(A103/2))^2</f>
         <v/>
       </c>
       <c r="D103" s="4">
